--- a/DA_Svietashova_diagramma2.xlsx
+++ b/DA_Svietashova_diagramma2.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Доля трудоустроенных особ с ВЗ из Украины</t>
   </si>
   <si>
-    <t xml:space="preserve">Административная и подсобная деятельность</t>
+    <t xml:space="preserve">Админ. и подсобная деятельность</t>
   </si>
   <si>
     <t xml:space="preserve">Производство</t>
@@ -310,7 +310,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -328,7 +328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>

--- a/DA_Svietashova_diagramma2.xlsx
+++ b/DA_Svietashova_diagramma2.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Доля трудоустроенных особ с ВЗ из Украины</t>
   </si>
   <si>
-    <t xml:space="preserve">Админ. и подсобная деятельность</t>
+    <t xml:space="preserve">Админ.и подсоб.деятельность</t>
   </si>
   <si>
     <t xml:space="preserve">Производство</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Торговля</t>
   </si>
   <si>
-    <t xml:space="preserve">Общепит, гостиничный бизнес</t>
+    <t xml:space="preserve">Общепит, гостин.бизнес</t>
   </si>
   <si>
     <t xml:space="preserve">Прочее</t>
@@ -310,7 +310,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DA_Svietashova_diagramma2.xlsx
+++ b/DA_Svietashova_diagramma2.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Доля трудоустроенных особ с ВЗ из Украины</t>
   </si>
   <si>
-    <t xml:space="preserve">Админ.и подсоб.деятельность</t>
+    <t xml:space="preserve">Административная и подсобная деятельность</t>
   </si>
   <si>
     <t xml:space="preserve">Производство</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Торговля</t>
   </si>
   <si>
-    <t xml:space="preserve">Общепит, гостин.бизнес</t>
+    <t xml:space="preserve">Общепит, гостиничный бизнес</t>
   </si>
   <si>
     <t xml:space="preserve">Прочее</t>
@@ -310,7 +310,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -328,7 +328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
